--- a/orders/orders.xlsx
+++ b/orders/orders.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Мигель Ярослав Сергійович</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Акацієвий мед</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Мигель Ярослав Сергійович</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>231</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
